--- a/Acetone/AVE_MOL_FRAC.xlsx
+++ b/Acetone/AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2833065A-45F2-4FCA-8B75-1D4B957CA1B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED400142-B18B-4221-98F4-F509A7915D8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{C5989C7F-3709-44F5-9A85-4D5B2676468C}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{C5989C7F-3709-44F5-9A85-4D5B2676468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.2741463879806119E-2</v>
+        <v>5.8953924423241967E-2</v>
       </c>
       <c r="C2">
-        <v>1.3209486138434227E-2</v>
+        <v>1.476544240883851E-2</v>
       </c>
       <c r="D2">
-        <v>8.6183042765238915E-2</v>
+        <v>6.1561109820681748E-2</v>
       </c>
       <c r="E2">
-        <v>2.5354078074899381E-3</v>
+        <v>2.8340555849093525E-3</v>
       </c>
       <c r="F2">
-        <v>2.3392609737614103E-4</v>
+        <v>2.6148044538098732E-4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,34 +631,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2381368468201267</v>
+        <v>0.26618718247595419</v>
       </c>
       <c r="J2">
-        <v>6.4611054892706549E-2</v>
+        <v>7.2221644354262898E-2</v>
       </c>
       <c r="K2">
-        <v>2.2920875319186622E-2</v>
+        <v>2.5620744133331923E-2</v>
       </c>
       <c r="L2">
-        <v>0.3702003748659472</v>
+        <v>0.39898010663428429</v>
       </c>
       <c r="M2">
-        <v>5.3131087138311842E-2</v>
+        <v>5.938944172681606E-2</v>
       </c>
       <c r="N2">
-        <v>2.4955389421771518E-2</v>
+        <v>2.8376044562392299E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>6.2056011410288617E-2</v>
+        <v>6.9365640192075857E-4</v>
       </c>
       <c r="Q2">
-        <v>3.5905363493003582E-3</v>
+        <v>4.0134685881671921E-3</v>
       </c>
       <c r="R2">
-        <v>5.4944970940154457E-3</v>
+        <v>6.1416984398177457E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.0691203038861115E-2</v>
+        <v>7.066444071152668E-2</v>
       </c>
       <c r="C3">
-        <v>1.6698597909419022E-2</v>
+        <v>1.9442637859397864E-2</v>
       </c>
       <c r="D3">
-        <v>9.0689057344094062E-2</v>
+        <v>6.3328761080472737E-2</v>
       </c>
       <c r="E3">
-        <v>3.0281055605866805E-3</v>
+        <v>3.5257067769328748E-3</v>
       </c>
       <c r="F3">
-        <v>1.6320730744363054E-4</v>
+        <v>1.9002676702838933E-4</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.28325009224498093</v>
+        <v>0.32979589047136998</v>
       </c>
       <c r="J3">
-        <v>1.2150943739279588E-2</v>
+        <v>1.4147678748493816E-2</v>
       </c>
       <c r="K3">
-        <v>2.8317756241578118E-2</v>
+        <v>3.2971144199187584E-2</v>
       </c>
       <c r="L3">
-        <v>0.30688313960386121</v>
+        <v>0.34451017695763214</v>
       </c>
       <c r="M3">
-        <v>6.393114313384228E-2</v>
+        <v>7.4436792276284705E-2</v>
       </c>
       <c r="N3">
-        <v>2.7848887675199177E-2</v>
+        <v>3.298604122134817E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>9.5275913962661427E-2</v>
+        <v>1.1093237300206502E-3</v>
       </c>
       <c r="Q3">
-        <v>4.3607924054241513E-3</v>
+        <v>5.0773908072156305E-3</v>
       </c>
       <c r="R3">
-        <v>6.7111598327686097E-3</v>
+        <v>7.8139883930888037E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.8338405217125558E-2</v>
+        <v>8.114367548504621E-2</v>
       </c>
       <c r="C4">
-        <v>1.8304468614712799E-2</v>
+        <v>2.1734365273514689E-2</v>
       </c>
       <c r="D4">
-        <v>9.5811950421482953E-2</v>
+        <v>6.7636523586920294E-2</v>
       </c>
       <c r="E4">
-        <v>3.6324762151271239E-3</v>
+        <v>4.3131306659986183E-3</v>
       </c>
       <c r="F4">
-        <v>3.2367075218514178E-4</v>
+        <v>3.8432027197395378E-4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.33318339489452459</v>
+        <v>0.39561539644405064</v>
       </c>
       <c r="J4">
-        <v>1.1624662000848378E-2</v>
+        <v>1.3802894551361383E-2</v>
       </c>
       <c r="K4">
-        <v>3.2666487267759836E-2</v>
+        <v>3.8787543163609557E-2</v>
       </c>
       <c r="L4">
-        <v>0.20603558754128362</v>
+        <v>0.23587717825374963</v>
       </c>
       <c r="M4">
-        <v>7.3141933216421123E-2</v>
+        <v>8.6847289959510049E-2</v>
       </c>
       <c r="N4">
-        <v>3.1580482119319062E-2</v>
+        <v>3.8161622241576522E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.11327011549054991</v>
+        <v>1.3449470271243013E-3</v>
       </c>
       <c r="Q4">
-        <v>4.3808718818067905E-3</v>
+        <v>5.2017609306137394E-3</v>
       </c>
       <c r="R4">
-        <v>7.7054943668532685E-3</v>
+        <v>9.1493521449503394E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>7.4991585538378924E-2</v>
+        <v>9.0122205187290444E-2</v>
       </c>
       <c r="C5">
-        <v>1.9993068726436761E-2</v>
+        <v>2.4026954879696531E-2</v>
       </c>
       <c r="D5">
-        <v>0.10226834234931564</v>
+        <v>7.6699287695998986E-2</v>
       </c>
       <c r="E5">
-        <v>4.3678882599093799E-3</v>
+        <v>5.2491718793337494E-3</v>
       </c>
       <c r="F5">
-        <v>1.6622308631967903E-3</v>
+        <v>1.9976095964126792E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.40314007617768643</v>
+        <v>0.48447932396244059</v>
       </c>
       <c r="J5">
-        <v>7.8186058969628731E-3</v>
+        <v>9.3961209096457103E-3</v>
       </c>
       <c r="K5">
-        <v>3.6089755393481242E-2</v>
+        <v>4.3371377166920834E-2</v>
       </c>
       <c r="L5">
-        <v>9.5286972127196459E-2</v>
+        <v>0.11040955211680777</v>
       </c>
       <c r="M5">
-        <v>8.3188280663942155E-2</v>
+        <v>9.9972700208303455E-2</v>
       </c>
       <c r="N5">
-        <v>3.0758814318820299E-2</v>
+        <v>3.7606719414657763E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.12784238154784811</v>
+        <v>1.5363640145454238E-3</v>
       </c>
       <c r="Q5">
-        <v>4.423005377974046E-3</v>
+        <v>5.3154096603847158E-3</v>
       </c>
       <c r="R5">
-        <v>8.1689927588508553E-3</v>
+        <v>9.8172033075613931E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.727642435844187E-2</v>
+        <v>8.9819828049248526E-2</v>
       </c>
       <c r="C6">
-        <v>1.9697749881878758E-2</v>
+        <v>2.2895061747951834E-2</v>
       </c>
       <c r="D6">
-        <v>0.10640116193607338</v>
+        <v>7.9386618542390056E-2</v>
       </c>
       <c r="E6">
-        <v>5.5207595443895648E-3</v>
+        <v>6.4168816957451257E-3</v>
       </c>
       <c r="F6">
-        <v>1.1324591273228877E-2</v>
+        <v>1.3162783466421087E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.49157836633130786</v>
+        <v>0.57137069556693509</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.0541136076517084E-2</v>
+        <v>3.5498531584449426E-2</v>
       </c>
       <c r="L6">
-        <v>4.9295575716574468E-2</v>
+        <v>5.5244238429381823E-2</v>
       </c>
       <c r="M6">
-        <v>7.4988210611711251E-2</v>
+        <v>8.7160194571411276E-2</v>
       </c>
       <c r="N6">
-        <v>2.2096636399761102E-2</v>
+        <v>2.6061421368158002E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.10112003255707555</v>
+        <v>1.1753369817529265E-3</v>
       </c>
       <c r="Q6">
-        <v>3.4918756947735535E-3</v>
+        <v>4.0586721898403684E-3</v>
       </c>
       <c r="R6">
-        <v>6.6674796182665912E-3</v>
+        <v>7.7497358063145453E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.3984908490428131E-2</v>
+        <v>8.507074708665377E-2</v>
       </c>
       <c r="C7">
-        <v>1.6187768857139122E-2</v>
+        <v>1.8613330994672474E-2</v>
       </c>
       <c r="D7">
-        <v>0.10571521693532245</v>
+        <v>7.4227573237438629E-2</v>
       </c>
       <c r="E7">
-        <v>5.8362195559417303E-3</v>
+        <v>6.7107139539131257E-3</v>
       </c>
       <c r="F7">
-        <v>2.1142606096168252E-2</v>
+        <v>2.4310597021182656E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,34 +911,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.53818398254410882</v>
+        <v>0.61882503336503114</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.7224302435818793E-2</v>
+        <v>3.1303569800694507E-2</v>
       </c>
       <c r="L7">
-        <v>2.8571358031694707E-2</v>
+        <v>3.1675380208903682E-2</v>
       </c>
       <c r="M7">
-        <v>6.8407328063291167E-2</v>
+        <v>7.865742653853379E-2</v>
       </c>
       <c r="N7">
-        <v>1.6594452486587547E-2</v>
+        <v>1.9296622012655102E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>8.9208649594503281E-2</v>
+        <v>1.0257560119274524E-3</v>
       </c>
       <c r="Q7">
-        <v>2.9660120881908718E-3</v>
+        <v>3.410436930432748E-3</v>
       </c>
       <c r="R7">
-        <v>5.9771948208052639E-3</v>
+        <v>6.8728128379609617E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.5715951877754077E-2</v>
+        <v>6.0580028006041023E-2</v>
       </c>
       <c r="C8">
-        <v>9.6434124413020024E-3</v>
+        <v>1.0485295074015145E-2</v>
       </c>
       <c r="D8">
-        <v>0.1034023573037559</v>
+        <v>6.2327685211302664E-2</v>
       </c>
       <c r="E8">
-        <v>7.0522378269678486E-3</v>
+        <v>7.6679074962291687E-3</v>
       </c>
       <c r="F8">
-        <v>6.4961662582251029E-2</v>
+        <v>7.0632901456773783E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,34 +967,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6513743855105123</v>
+        <v>0.70824022899624994</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.3957324440984761E-2</v>
+        <v>1.5175817284418643E-2</v>
       </c>
       <c r="L8">
-        <v>6.9999211538658368E-3</v>
+        <v>7.3383244729372833E-3</v>
       </c>
       <c r="M8">
-        <v>4.0275997350952636E-2</v>
+        <v>4.3792145072659903E-2</v>
       </c>
       <c r="N8">
-        <v>8.042390017780416E-3</v>
+        <v>8.7165551529670721E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.4278957534871528E-2</v>
+        <v>3.7271555766231967E-4</v>
       </c>
       <c r="Q8">
-        <v>1.2833619979074409E-3</v>
+        <v>1.3954011940010222E-3</v>
       </c>
       <c r="R8">
-        <v>3.0120399610942682E-3</v>
+        <v>3.2749950247419313E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>4.3554332300216506E-2</v>
+        <v>4.7077362730405498E-2</v>
       </c>
       <c r="C9">
-        <v>2.8495886590672584E-3</v>
+        <v>3.0800866837004011E-3</v>
       </c>
       <c r="D9">
-        <v>9.643379340255151E-2</v>
+        <v>3.6947466775695263E-2</v>
       </c>
       <c r="E9">
-        <v>7.6748306036937544E-3</v>
+        <v>8.2956336406220573E-3</v>
       </c>
       <c r="F9">
-        <v>9.8809745875556951E-2</v>
+        <v>0.10680228583964906</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.71109230153791403</v>
+        <v>0.7686112596916761</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.9350361651180688E-3</v>
+        <v>5.3342222314765632E-3</v>
       </c>
       <c r="L9">
-        <v>8.9336292095570501E-4</v>
+        <v>9.3102755755141028E-4</v>
       </c>
       <c r="M9">
-        <v>1.7055029649651929E-2</v>
+        <v>1.8434579863608497E-2</v>
       </c>
       <c r="N9">
-        <v>2.8668834359382297E-3</v>
+        <v>2.932807055387926E-3</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.2523299184212461E-2</v>
+        <v>1.3536285993612411E-4</v>
       </c>
       <c r="Q9">
-        <v>3.3180606522412707E-4</v>
+        <v>3.5864525211943535E-4</v>
       </c>
       <c r="R9">
-        <v>9.7999019989948762E-4</v>
+        <v>1.0592598181715538E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1058,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>3.2110138161786275E-2</v>
+        <v>2.7307177607850942E-2</v>
       </c>
       <c r="C10">
-        <v>1.6728100102328634E-3</v>
+        <v>8.871303601895664E-4</v>
       </c>
       <c r="D10">
-        <v>8.7972488847878519E-2</v>
+        <v>1.8576696973118163E-2</v>
       </c>
       <c r="E10">
-        <v>7.9617055488218572E-3</v>
+        <v>8.5403960986853954E-3</v>
       </c>
       <c r="F10">
-        <v>0.13370394514483511</v>
+        <v>0.15472056978205162</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7301283487632243</v>
+        <v>0.78577075256748785</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.0790784348765113E-3</v>
+        <v>6.992937737437528E-4</v>
       </c>
       <c r="L10">
-        <v>5.8707136677198475E-5</v>
+        <v>4.8006482438924775E-5</v>
       </c>
       <c r="M10">
-        <v>4.7253105148060822E-3</v>
+        <v>3.1325679675502645E-3</v>
       </c>
       <c r="N10">
-        <v>4.0107181719434049E-4</v>
+        <v>1.9925307168288373E-4</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.3949906892637331E-5</v>
+        <v>1.8004431433235521E-5</v>
       </c>
       <c r="R10">
-        <v>1.5244571277428306E-4</v>
+        <v>1.001508837674543E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1114,19 +1114,19 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>1.3938693311529261E-2</v>
+        <v>1.5083007870155055E-2</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.1575100449609375E-2</v>
+        <v>6.1778659846783617E-3</v>
       </c>
       <c r="E11">
-        <v>7.9428111870896104E-3</v>
+        <v>8.594886261464374E-3</v>
       </c>
       <c r="F11">
-        <v>0.16549512396247848</v>
+        <v>0.17908165431358405</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.73078592875248594</v>
+        <v>0.79078071871021072</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.1915184918244542E-5</v>
+        <v>5.416442632201679E-5</v>
       </c>
       <c r="M11">
-        <v>2.1042715188899878E-4</v>
+        <v>2.2770243358542373E-4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1258,19 +1258,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.9746369897278016E-3</v>
+        <v>4.5583395802336448E-3</v>
       </c>
       <c r="C2">
-        <v>1.0904207929667005E-3</v>
+        <v>1.2453335310729306E-3</v>
       </c>
       <c r="D2">
-        <v>1.2532708377625686E-2</v>
+        <v>1.2536776442078981E-2</v>
       </c>
       <c r="E2">
-        <v>1.9977925825506479E-4</v>
+        <v>2.2862872355523649E-4</v>
       </c>
       <c r="F2">
-        <v>1.7434097223859205E-5</v>
+        <v>2.0005650625405418E-5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1279,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.7835521697474595E-2</v>
+        <v>2.0461159556375057E-2</v>
       </c>
       <c r="J2">
-        <v>0.10968499651886392</v>
+        <v>0.1226112469133559</v>
       </c>
       <c r="K2">
-        <v>2.0338590348459836E-3</v>
+        <v>2.316220658411014E-3</v>
       </c>
       <c r="L2">
-        <v>3.7502546375612192E-2</v>
+        <v>4.157794149775567E-2</v>
       </c>
       <c r="M2">
-        <v>3.9962207267706792E-3</v>
+        <v>4.5835399029928985E-3</v>
       </c>
       <c r="N2">
-        <v>6.1461526704291334E-3</v>
+        <v>7.0464534827101334E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.8896473912179525E-2</v>
+        <v>3.2322490540720032E-4</v>
       </c>
       <c r="Q2">
-        <v>3.0148925176763582E-4</v>
+        <v>3.440780707159137E-4</v>
       </c>
       <c r="R2">
-        <v>4.8096311392280706E-4</v>
+        <v>5.4801180114714509E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.5621032511605603E-3</v>
+        <v>3.0080750958517487E-3</v>
       </c>
       <c r="C3">
-        <v>1.1147456795256223E-3</v>
+        <v>1.0331650361507395E-3</v>
       </c>
       <c r="D3">
-        <v>1.9552951634904545E-2</v>
+        <v>2.7150451689081426E-2</v>
       </c>
       <c r="E3">
-        <v>1.8585554924574813E-4</v>
+        <v>1.6288644892361944E-4</v>
       </c>
       <c r="F3">
-        <v>5.6466274076265052E-5</v>
+        <v>6.529532252974162E-5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1335,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.6430874066994259E-2</v>
+        <v>1.3726254484121023E-2</v>
       </c>
       <c r="J3">
-        <v>1.9943461450209261E-2</v>
+        <v>2.3213684094064962E-2</v>
       </c>
       <c r="K3">
-        <v>2.0964802892625436E-3</v>
+        <v>2.0453655574729141E-3</v>
       </c>
       <c r="L3">
-        <v>2.9666035105620936E-2</v>
+        <v>3.0834221693477236E-2</v>
       </c>
       <c r="M3">
-        <v>3.6633395796776117E-3</v>
+        <v>3.0243097210464207E-3</v>
       </c>
       <c r="N3">
-        <v>6.6796677664921252E-3</v>
+        <v>7.8470996410242334E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>4.5606887370889304E-2</v>
+        <v>5.2911831720830734E-4</v>
       </c>
       <c r="Q3">
-        <v>2.9609600941914968E-4</v>
+        <v>2.77062107124309E-4</v>
       </c>
       <c r="R3">
-        <v>5.2304828078061883E-4</v>
+        <v>5.2075893445286011E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.9685348033422895E-3</v>
+        <v>4.3634824283175057E-3</v>
       </c>
       <c r="C4">
-        <v>1.304457120673626E-3</v>
+        <v>1.1260716401824339E-3</v>
       </c>
       <c r="D4">
-        <v>1.3756781097068968E-2</v>
+        <v>1.3866080947049912E-2</v>
       </c>
       <c r="E4">
-        <v>4.4280210782036614E-4</v>
+        <v>4.8155783132237376E-4</v>
       </c>
       <c r="F4">
-        <v>3.4955923692747004E-4</v>
+        <v>4.1463351997426333E-4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1391,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.1118213695216857E-2</v>
+        <v>4.4821310295840168E-2</v>
       </c>
       <c r="J4">
-        <v>2.0841885139800835E-2</v>
+        <v>2.4738025620072063E-2</v>
       </c>
       <c r="K4">
-        <v>3.100716543914246E-3</v>
+        <v>3.1548398738303501E-3</v>
       </c>
       <c r="L4">
-        <v>6.9023715071489453E-2</v>
+        <v>7.8282285644035929E-2</v>
       </c>
       <c r="M4">
-        <v>4.8899275867757301E-3</v>
+        <v>3.9564274702984957E-3</v>
       </c>
       <c r="N4">
-        <v>3.5561862827875163E-3</v>
+        <v>3.890692274841138E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>5.2559853319654883E-2</v>
+        <v>6.2060579580689877E-4</v>
       </c>
       <c r="Q4">
-        <v>3.8117131056805101E-4</v>
+        <v>3.742426114374618E-4</v>
       </c>
       <c r="R4">
-        <v>6.1368896452093115E-4</v>
+        <v>5.7493621757808051E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,19 +1426,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.0088252176754252E-3</v>
+        <v>3.2068541726035247E-3</v>
       </c>
       <c r="C5">
-        <v>1.4956269083328607E-3</v>
+        <v>1.1773593707135523E-3</v>
       </c>
       <c r="D5">
-        <v>1.4466568697423101E-2</v>
+        <v>1.4705497890654966E-2</v>
       </c>
       <c r="E5">
-        <v>3.0856797378845172E-4</v>
+        <v>2.2243717111917693E-4</v>
       </c>
       <c r="F5">
-        <v>1.0945964309022777E-4</v>
+        <v>6.7488169564888282E-5</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1447,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.6714928229355762E-2</v>
+        <v>1.6757379993770867E-2</v>
       </c>
       <c r="J5">
-        <v>1.9777179994531172E-2</v>
+        <v>2.3761572743652388E-2</v>
       </c>
       <c r="K5">
-        <v>2.9442720006323639E-3</v>
+        <v>2.551417376926319E-3</v>
       </c>
       <c r="L5">
-        <v>9.0619248448046905E-3</v>
+        <v>8.6568264132126128E-3</v>
       </c>
       <c r="M5">
-        <v>5.5425522990127547E-3</v>
+        <v>3.5262646160288888E-3</v>
       </c>
       <c r="N5">
-        <v>2.2878027875971392E-3</v>
+        <v>1.8250286075749559E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>5.9362548181631239E-2</v>
+        <v>7.0809255640017497E-4</v>
       </c>
       <c r="Q5">
-        <v>3.377880963629415E-4</v>
+        <v>2.729821848852265E-4</v>
       </c>
       <c r="R5">
-        <v>6.5578004217405788E-4</v>
+        <v>5.5961359436262318E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,19 +1482,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.4619971796705776E-3</v>
+        <v>5.029636905245158E-3</v>
       </c>
       <c r="C6">
-        <v>1.2360899262442405E-3</v>
+        <v>1.0436067068552847E-3</v>
       </c>
       <c r="D6">
-        <v>1.7652613647188432E-2</v>
+        <v>2.2389326735270887E-2</v>
       </c>
       <c r="E6">
-        <v>4.066270589182042E-4</v>
+        <v>3.8312351711041262E-4</v>
       </c>
       <c r="F6">
-        <v>1.0661965516338804E-2</v>
+        <v>1.2379590902660028E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1503,34 +1503,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.1318104419580205E-2</v>
+        <v>4.1220107083145649E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.1007716896821712E-3</v>
+        <v>5.7276207674062801E-3</v>
       </c>
       <c r="L6">
-        <v>9.3911217327073884E-3</v>
+        <v>1.0295741871677535E-2</v>
       </c>
       <c r="M6">
-        <v>8.3541674965758456E-3</v>
+        <v>8.9530123926098958E-3</v>
       </c>
       <c r="N6">
-        <v>5.2738811775468776E-3</v>
+        <v>6.1715935690329514E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>5.1807591414383278E-2</v>
+        <v>6.0003180000707209E-4</v>
       </c>
       <c r="Q6">
-        <v>3.1594437452333603E-4</v>
+        <v>3.228218233247738E-4</v>
       </c>
       <c r="R6">
-        <v>9.4574209271755831E-4</v>
+        <v>1.0472052499322512E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>6.8577723537182706E-3</v>
+        <v>7.4355973633277667E-3</v>
       </c>
       <c r="C7">
-        <v>2.6881526860401805E-3</v>
+        <v>3.037115129447526E-3</v>
       </c>
       <c r="D7">
-        <v>1.5988881807184618E-2</v>
+        <v>1.8454668808158842E-2</v>
       </c>
       <c r="E7">
-        <v>8.1396173269576537E-4</v>
+        <v>9.1273163968114753E-4</v>
       </c>
       <c r="F7">
-        <v>2.2716567075239329E-2</v>
+        <v>2.6109625571462708E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1559,34 +1559,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.7594956929192729E-2</v>
+        <v>8.7154534357758467E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.6148150038907381E-3</v>
+        <v>9.858446119765326E-3</v>
       </c>
       <c r="L7">
-        <v>1.3206127801194976E-2</v>
+        <v>1.4618962970849985E-2</v>
       </c>
       <c r="M7">
-        <v>1.644359510520129E-2</v>
+        <v>1.8751067218558678E-2</v>
       </c>
       <c r="N7">
-        <v>9.7228152057309645E-3</v>
+        <v>1.1428818448764293E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>5.3324006780069461E-2</v>
+        <v>6.1232285574317044E-4</v>
       </c>
       <c r="Q7">
-        <v>8.397836669974155E-4</v>
+        <v>9.5986488148984742E-4</v>
       </c>
       <c r="R7">
-        <v>1.6942504537208033E-3</v>
+        <v>1.9365384327312254E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.3521337366614442E-2</v>
+        <v>1.4679730604263124E-2</v>
       </c>
       <c r="C8">
-        <v>2.9738873731162308E-3</v>
+        <v>3.2305108935010919E-3</v>
       </c>
       <c r="D8">
-        <v>1.7031900183767032E-2</v>
+        <v>1.9546882900264538E-2</v>
       </c>
       <c r="E8">
-        <v>5.6316287249283696E-4</v>
+        <v>6.0379771744667411E-4</v>
       </c>
       <c r="F8">
-        <v>3.1048627302135479E-2</v>
+        <v>3.3746174263374513E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1615,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.3649236428347402E-2</v>
+        <v>5.7569324086123599E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.1519686259444844E-3</v>
+        <v>5.5981142946208108E-3</v>
       </c>
       <c r="L8">
-        <v>1.5739289975751339E-3</v>
+        <v>1.6520603787303911E-3</v>
       </c>
       <c r="M8">
-        <v>1.2727900014968775E-2</v>
+        <v>1.382683260176641E-2</v>
       </c>
       <c r="N8">
-        <v>2.1650502396289252E-4</v>
+        <v>2.0410173557513869E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.7500954525765534E-2</v>
+        <v>1.902236983130395E-4</v>
       </c>
       <c r="Q8">
-        <v>3.9857084426564324E-4</v>
+        <v>4.3297006586018891E-4</v>
       </c>
       <c r="R8">
-        <v>1.0107431940134359E-3</v>
+        <v>1.0981211268635564E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>6.1452121284050719E-3</v>
+        <v>6.5861132463530796E-3</v>
       </c>
       <c r="C9">
-        <v>4.1277739851582002E-3</v>
+        <v>4.4613056084145302E-3</v>
       </c>
       <c r="D9">
-        <v>3.2696377080379216E-2</v>
+        <v>2.1005223779032856E-2</v>
       </c>
       <c r="E9">
-        <v>3.1697139242144743E-4</v>
+        <v>3.0709669331409394E-4</v>
       </c>
       <c r="F9">
-        <v>7.7327433315720869E-3</v>
+        <v>8.1262222685437955E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1671,34 +1671,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.3625799567231053E-2</v>
+        <v>2.1308566253422413E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.8087607790373149E-3</v>
+        <v>1.9526267361135235E-3</v>
       </c>
       <c r="L9">
-        <v>2.5258652337940466E-4</v>
+        <v>2.631838477964581E-4</v>
       </c>
       <c r="M9">
-        <v>5.232690913109888E-3</v>
+        <v>5.6458719924755039E-3</v>
       </c>
       <c r="N9">
-        <v>5.7742770134638346E-4</v>
+        <v>6.3574795409185433E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>6.051920163587023E-3</v>
+        <v>6.5367514191400056E-5</v>
       </c>
       <c r="Q9">
-        <v>3.7119675620096349E-5</v>
+        <v>3.9581126471256237E-5</v>
       </c>
       <c r="R9">
-        <v>2.8142623896906674E-4</v>
+        <v>3.0357129576309407E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1706,19 +1706,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>8.189705159800996E-4</v>
+        <v>1.3521787210846218E-2</v>
       </c>
       <c r="C10">
-        <v>7.0684617514859494E-5</v>
+        <v>1.7750062069621536E-3</v>
       </c>
       <c r="D10">
-        <v>1.2302024036557805E-2</v>
+        <v>3.5362883545971978E-3</v>
       </c>
       <c r="E10">
-        <v>2.7349664262875335E-4</v>
+        <v>3.6000739897483545E-4</v>
       </c>
       <c r="F10">
-        <v>3.0656399387946369E-3</v>
+        <v>2.610182754538266E-2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1727,22 +1727,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.7594257270955212E-2</v>
+        <v>3.0536130402123853E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.7556171923267502E-5</v>
+        <v>8.9154393319595948E-4</v>
       </c>
       <c r="L10">
-        <v>4.2471015974985587E-6</v>
+        <v>2.4343547063745274E-5</v>
       </c>
       <c r="M10">
-        <v>1.1845954933733116E-4</v>
+        <v>3.7597308927935225E-3</v>
       </c>
       <c r="N10">
-        <v>6.9698621220648696E-6</v>
+        <v>3.9604201461650472E-6</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.5265553468244834E-6</v>
+        <v>3.6026119414522755E-5</v>
       </c>
       <c r="R10">
-        <v>7.823469546763585E-6</v>
+        <v>1.2322726497510146E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1762,19 +1762,19 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>3.5261165062722822E-4</v>
+        <v>3.4784203987522151E-4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.1746374978060765E-2</v>
+        <v>1.1725872971604986E-3</v>
       </c>
       <c r="E11">
-        <v>2.7351656469497108E-4</v>
+        <v>2.8215772734186025E-4</v>
       </c>
       <c r="F11">
-        <v>3.9150961302503243E-3</v>
+        <v>3.8053969427781875E-3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.7449358160578601E-2</v>
+        <v>1.6997745335046166E-2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.7519572060350521E-6</v>
+        <v>3.9851363140923888E-6</v>
       </c>
       <c r="M11">
-        <v>5.2307548435288481E-6</v>
+        <v>5.1412574706768703E-6</v>
       </c>
       <c r="N11">
         <v>0</v>
